--- a/src/main/resources/static/MTS_Database_Schema.xlsx
+++ b/src/main/resources/static/MTS_Database_Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\movie-ticket-service\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{371D3CB6-048B-43EC-BCA6-F0B15D3D0BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2159C4C9-09E3-4B86-B586-AC00B6E2DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54A43033-A4FC-4481-B143-F3F3B14245E8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -212,12 +213,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +536,7 @@
   <dimension ref="D4:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="G5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,255 +550,255 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="H13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -811,5 +812,6 @@
     <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/MTS_Database_Schema.xlsx
+++ b/src/main/resources/static/MTS_Database_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\movie-ticket-service\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2159C4C9-09E3-4B86-B586-AC00B6E2DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3429BC22-B730-4B37-A050-01B7828B1774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54A43033-A4FC-4481-B143-F3F3B14245E8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,9 +66,6 @@
     <t>THEATRE_CODE</t>
   </si>
   <si>
-    <t>CURRENT_MOVIE</t>
-  </si>
-  <si>
     <t>CAPACITY</t>
   </si>
   <si>
@@ -137,6 +133,9 @@
   </si>
   <si>
     <t>BOOKING_STATUS</t>
+  </si>
+  <si>
+    <t>TITLE</t>
   </si>
 </sst>
 </file>
@@ -536,7 +535,7 @@
   <dimension ref="D4:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,11 +554,11 @@
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -577,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>6</v>
@@ -620,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -636,12 +635,6 @@
       <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -660,55 +653,75 @@
       </c>
     </row>
     <row r="11" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>6</v>
@@ -716,47 +729,47 @@
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
@@ -765,41 +778,29 @@
         <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -807,9 +808,9 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/static/MTS_Database_Schema.xlsx
+++ b/src/main/resources/static/MTS_Database_Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\movie-ticket-service\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3429BC22-B730-4B37-A050-01B7828B1774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367608C7-D8C0-40FC-877F-24CC412B9F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54A43033-A4FC-4481-B143-F3F3B14245E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>USER_DETAILS</t>
   </si>
@@ -210,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,7 +536,7 @@
   <dimension ref="D4:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,18 +550,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
@@ -654,18 +655,18 @@
     </row>
     <row r="11" spans="4:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
@@ -694,10 +695,10 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -715,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
@@ -734,10 +735,10 @@
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -748,17 +749,17 @@
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>34</v>
@@ -773,12 +774,6 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>35</v>
